--- a/portfolio/risk_issue_log.xlsx
+++ b/portfolio/risk_issue_log.xlsx
@@ -4,26 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Risks" sheetId="1" r:id="rId1"/>
+    <sheet name="Spikes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>ID #</t>
   </si>
   <si>
-    <t>Type (R|D)</t>
-  </si>
-  <si>
     <t>Identified by</t>
   </si>
   <si>
@@ -46,14 +42,178 @@
   </si>
   <si>
     <t>DateDeveloper completed</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Tool-001</t>
+  </si>
+  <si>
+    <t>Tool-002</t>
+  </si>
+  <si>
+    <t>Tool-003</t>
+  </si>
+  <si>
+    <t>Python is a new language for the developer</t>
+  </si>
+  <si>
+    <t>RabbitMQ is a new message queue system for the developer</t>
+  </si>
+  <si>
+    <t>MongoDB is a new data storage system for the developer</t>
+  </si>
+  <si>
+    <t>Tool-004</t>
+  </si>
+  <si>
+    <t>SUMO</t>
+  </si>
+  <si>
+    <t>SUMO is a new simulation environment for the developer</t>
+  </si>
+  <si>
+    <t>2011.09.24</t>
+  </si>
+  <si>
+    <t>major professor</t>
+  </si>
+  <si>
+    <t>Tool-005</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>git is a new version control system for the developer</t>
+  </si>
+  <si>
+    <t>The developer will view training videos, attend lectures, read books and articles, do exercises and spike explorations in order to gain proficiency.</t>
+  </si>
+  <si>
+    <t>Q Fanout</t>
+  </si>
+  <si>
+    <t>Use RabbitMQ with fan out exchange to distribute data to multiple agents.</t>
+  </si>
+  <si>
+    <t>A spike solution was created which creates a fan out exchange, sends a message to it and multiple clients receive the message.</t>
+  </si>
+  <si>
+    <t>Rabbit-001</t>
+  </si>
+  <si>
+    <t>TRACI-001</t>
+  </si>
+  <si>
+    <t>read from TRACI</t>
+  </si>
+  <si>
+    <t>demonstrate ability to read from TRACI</t>
+  </si>
+  <si>
+    <t>TRACI-002</t>
+  </si>
+  <si>
+    <t>send to TRACI</t>
+  </si>
+  <si>
+    <t>demonstrate ability to send Traffic Light Signal commands to TRACI</t>
+  </si>
+  <si>
+    <t>Rabbit-002</t>
+  </si>
+  <si>
+    <t>aggregation</t>
+  </si>
+  <si>
+    <t>TRACI-003</t>
+  </si>
+  <si>
+    <t>TRACI-004</t>
+  </si>
+  <si>
+    <t>TRACI-005</t>
+  </si>
+  <si>
+    <t>TRACI-006</t>
+  </si>
+  <si>
+    <t>TRACI-007</t>
+  </si>
+  <si>
+    <t>network metrics</t>
+  </si>
+  <si>
+    <t>ability to read network metrics from TRACI</t>
+  </si>
+  <si>
+    <t>new sensors</t>
+  </si>
+  <si>
+    <t>ability to add sensors to an existing road definition</t>
+  </si>
+  <si>
+    <t>read sensors</t>
+  </si>
+  <si>
+    <t>ability to read sensor data from an existing road network</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>ability to load and use an existing road network</t>
+  </si>
+  <si>
+    <t>ability to create/load the double-T network</t>
+  </si>
+  <si>
+    <t>2011.09.14</t>
+  </si>
+  <si>
+    <t>2011.08.21</t>
+  </si>
+  <si>
+    <t>demo for committee?</t>
+  </si>
+  <si>
+    <t>Ability to use RabbitMQ with multiple agents to aggregate results.  The ability for a single agent to take in input from multiple other agents for decision making.</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Date Developer completed</t>
+  </si>
+  <si>
+    <t>Type (Risk| Defect| Issue)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,17 +241,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,82 +565,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="1" bottom="0.25" header="0.25" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F&amp;C&amp;A&amp;R&amp;D &amp;T</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="1" bottom="0.25" header="0.25" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F&amp;C&amp;A&amp;R&amp;D &amp;T</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>